--- a/downloads/Format_oscrms_rencana.xlsx
+++ b/downloads/Format_oscrms_rencana.xlsx
@@ -240,6 +240,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,15 +257,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,64 +578,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="6">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
         <v>123</v>
       </c>
-      <c r="D3" s="9">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="D3" s="5">
+        <v>12314</v>
+      </c>
+      <c r="E3" s="6">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5">
         <v>12</v>
       </c>
     </row>
@@ -669,25 +669,25 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9">
-        <v>12</v>
-      </c>
-      <c r="E5" s="10">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9">
-        <v>12</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="B5" s="6">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
         <v>12</v>
       </c>
     </row>
@@ -721,25 +721,25 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9">
-        <v>12</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="B7" s="6">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
         <v>12</v>
       </c>
     </row>
@@ -773,25 +773,25 @@
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9">
-        <v>12</v>
-      </c>
-      <c r="E9" s="10">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9">
-        <v>12</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="B9" s="6">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5">
         <v>12</v>
       </c>
     </row>
@@ -812,7 +812,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="2">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2">
         <v>12</v>
@@ -825,25 +825,25 @@
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9">
-        <v>12</v>
-      </c>
-      <c r="D11" s="9">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9">
-        <v>12</v>
-      </c>
-      <c r="G11" s="9">
-        <v>12</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="B11" s="6">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5">
         <v>12</v>
       </c>
     </row>
@@ -877,25 +877,25 @@
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9">
-        <v>12</v>
-      </c>
-      <c r="D13" s="9">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9">
-        <v>12</v>
-      </c>
-      <c r="G13" s="9">
-        <v>12</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
         <v>12</v>
       </c>
     </row>
@@ -929,25 +929,25 @@
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9">
-        <v>12</v>
-      </c>
-      <c r="D15" s="9">
-        <v>12</v>
-      </c>
-      <c r="E15" s="10">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9">
-        <v>12</v>
-      </c>
-      <c r="G15" s="9">
-        <v>12</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5">
         <v>12</v>
       </c>
     </row>
@@ -981,25 +981,25 @@
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9">
-        <v>12</v>
-      </c>
-      <c r="E17" s="10">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9">
-        <v>12</v>
-      </c>
-      <c r="G17" s="9">
-        <v>12</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="B17" s="6">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1033,25 +1033,25 @@
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9">
-        <v>12</v>
-      </c>
-      <c r="D19" s="9">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9">
-        <v>12</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="B19" s="6">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1085,25 +1085,25 @@
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9">
-        <v>12</v>
-      </c>
-      <c r="D21" s="9">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9">
-        <v>12</v>
-      </c>
-      <c r="G21" s="9">
-        <v>12</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="B21" s="6">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1111,25 +1111,25 @@
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="10">
-        <v>12</v>
-      </c>
-      <c r="C22" s="10">
-        <v>12</v>
-      </c>
-      <c r="D22" s="9">
-        <v>12</v>
-      </c>
-      <c r="E22" s="10">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9">
-        <v>12</v>
-      </c>
-      <c r="G22" s="9">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="B22" s="6">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1163,25 +1163,25 @@
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10">
-        <v>12</v>
-      </c>
-      <c r="C24" s="9">
-        <v>12</v>
-      </c>
-      <c r="D24" s="9">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9">
-        <v>12</v>
-      </c>
-      <c r="G24" s="9">
-        <v>12</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="B24" s="6">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1215,25 +1215,25 @@
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="10">
-        <v>12</v>
-      </c>
-      <c r="C26" s="9">
-        <v>12</v>
-      </c>
-      <c r="D26" s="9">
-        <v>12</v>
-      </c>
-      <c r="E26" s="10">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9">
-        <v>12</v>
-      </c>
-      <c r="G26" s="9">
-        <v>12</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="B26" s="6">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5">
+        <v>12</v>
+      </c>
+      <c r="H26" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1267,25 +1267,25 @@
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="10">
-        <v>12</v>
-      </c>
-      <c r="C28" s="9">
-        <v>12</v>
-      </c>
-      <c r="D28" s="9">
-        <v>12</v>
-      </c>
-      <c r="E28" s="10">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9">
-        <v>12</v>
-      </c>
-      <c r="H28" s="9">
+      <c r="B28" s="6">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1319,25 +1319,25 @@
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="10">
-        <v>12</v>
-      </c>
-      <c r="C30" s="9">
-        <v>12</v>
-      </c>
-      <c r="D30" s="9">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10">
-        <v>12</v>
-      </c>
-      <c r="F30" s="9">
-        <v>12</v>
-      </c>
-      <c r="G30" s="9">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9">
+      <c r="B30" s="6">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5">
+        <v>12</v>
+      </c>
+      <c r="H30" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1371,25 +1371,25 @@
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="10">
-        <v>12</v>
-      </c>
-      <c r="C32" s="9">
-        <v>12</v>
-      </c>
-      <c r="D32" s="9">
-        <v>12</v>
-      </c>
-      <c r="E32" s="10">
-        <v>12</v>
-      </c>
-      <c r="F32" s="9">
-        <v>12</v>
-      </c>
-      <c r="G32" s="9">
-        <v>12</v>
-      </c>
-      <c r="H32" s="9">
+      <c r="B32" s="6">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5">
+        <v>12</v>
+      </c>
+      <c r="H32" s="5">
         <v>12</v>
       </c>
     </row>

--- a/downloads/Format_oscrms_rencana.xlsx
+++ b/downloads/Format_oscrms_rencana.xlsx
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -246,9 +246,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,6 +253,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,847 +580,413 @@
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6">
-        <v>123</v>
-      </c>
-      <c r="D3" s="5">
-        <v>12314</v>
-      </c>
-      <c r="E3" s="6">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5">
-        <v>12</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2">
-        <v>12</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5">
-        <v>12</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2">
-        <v>12</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5">
-        <v>12</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2">
-        <v>12</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5">
-        <v>12</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2">
-        <v>78</v>
-      </c>
-      <c r="G10" s="2">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2">
-        <v>12</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5">
-        <v>12</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2">
-        <v>12</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5">
-        <v>12</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2">
-        <v>12</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5">
-        <v>12</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2">
-        <v>12</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5">
-        <v>12</v>
-      </c>
-      <c r="E17" s="6">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5">
-        <v>12</v>
-      </c>
-      <c r="G17" s="5">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5">
-        <v>12</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2">
-        <v>12</v>
-      </c>
-      <c r="H18" s="2">
-        <v>12</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6">
-        <v>12</v>
-      </c>
-      <c r="C19" s="5">
-        <v>12</v>
-      </c>
-      <c r="D19" s="5">
-        <v>12</v>
-      </c>
-      <c r="E19" s="6">
-        <v>12</v>
-      </c>
-      <c r="F19" s="5">
-        <v>12</v>
-      </c>
-      <c r="G19" s="5">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5">
-        <v>12</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2">
-        <v>12</v>
-      </c>
-      <c r="H20" s="2">
-        <v>12</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6">
-        <v>12</v>
-      </c>
-      <c r="F21" s="5">
-        <v>12</v>
-      </c>
-      <c r="G21" s="5">
-        <v>12</v>
-      </c>
-      <c r="H21" s="5">
-        <v>12</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
-        <v>12</v>
-      </c>
-      <c r="C22" s="6">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6">
-        <v>12</v>
-      </c>
-      <c r="F22" s="5">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5">
-        <v>12</v>
-      </c>
-      <c r="H22" s="5">
-        <v>12</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2">
-        <v>12</v>
-      </c>
-      <c r="H23" s="2">
-        <v>12</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
-        <v>12</v>
-      </c>
-      <c r="C24" s="5">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5">
-        <v>12</v>
-      </c>
-      <c r="E24" s="6">
-        <v>12</v>
-      </c>
-      <c r="F24" s="5">
-        <v>12</v>
-      </c>
-      <c r="G24" s="5">
-        <v>12</v>
-      </c>
-      <c r="H24" s="5">
-        <v>12</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2">
-        <v>12</v>
-      </c>
-      <c r="H25" s="2">
-        <v>12</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="6">
-        <v>12</v>
-      </c>
-      <c r="C26" s="5">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6">
-        <v>12</v>
-      </c>
-      <c r="F26" s="5">
-        <v>12</v>
-      </c>
-      <c r="G26" s="5">
-        <v>12</v>
-      </c>
-      <c r="H26" s="5">
-        <v>12</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2">
-        <v>12</v>
-      </c>
-      <c r="H27" s="2">
-        <v>12</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6">
-        <v>12</v>
-      </c>
-      <c r="C28" s="5">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5">
-        <v>12</v>
-      </c>
-      <c r="E28" s="6">
-        <v>12</v>
-      </c>
-      <c r="F28" s="5">
-        <v>12</v>
-      </c>
-      <c r="G28" s="5">
-        <v>12</v>
-      </c>
-      <c r="H28" s="5">
-        <v>12</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2">
-        <v>12</v>
-      </c>
-      <c r="H29" s="2">
-        <v>12</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="6">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6">
-        <v>12</v>
-      </c>
-      <c r="F30" s="5">
-        <v>12</v>
-      </c>
-      <c r="G30" s="5">
-        <v>12</v>
-      </c>
-      <c r="H30" s="5">
-        <v>12</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2">
-        <v>12</v>
-      </c>
-      <c r="G31" s="2">
-        <v>12</v>
-      </c>
-      <c r="H31" s="2">
-        <v>12</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
-        <v>12</v>
-      </c>
-      <c r="C32" s="5">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5">
-        <v>12</v>
-      </c>
-      <c r="E32" s="6">
-        <v>12</v>
-      </c>
-      <c r="F32" s="5">
-        <v>12</v>
-      </c>
-      <c r="G32" s="5">
-        <v>12</v>
-      </c>
-      <c r="H32" s="5">
-        <v>12</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2">
-        <v>12</v>
-      </c>
-      <c r="G33" s="2">
-        <v>12</v>
-      </c>
-      <c r="H33" s="2">
-        <v>12</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34"/>

--- a/downloads/Format_oscrms_rencana.xlsx
+++ b/downloads/Format_oscrms_rencana.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>1</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>OWN USE</t>
+  </si>
+  <si>
+    <t>MISS (Tidak Terkirim Hari Sebelumnya)</t>
+  </si>
+  <si>
+    <t>TAMBAHAN /HO/HI</t>
+  </si>
+  <si>
+    <t>PEMBATALAN/CANCEL</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -246,6 +255,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,12 +270,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,45 +588,60 @@
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -627,8 +652,11 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -639,8 +667,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -651,8 +682,11 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -663,8 +697,11 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -675,8 +712,11 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -687,8 +727,11 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -699,8 +742,11 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -711,8 +757,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -723,8 +772,11 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -735,8 +787,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -747,8 +802,11 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -759,8 +817,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -771,8 +832,11 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -783,8 +847,11 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -795,8 +862,11 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -807,8 +877,11 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -819,8 +892,11 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -831,8 +907,11 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -843,8 +922,11 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -855,8 +937,11 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -867,8 +952,11 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -879,8 +967,11 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -891,8 +982,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -903,8 +997,11 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -915,8 +1012,11 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -927,8 +1027,11 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -939,8 +1042,11 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -951,8 +1057,11 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -963,8 +1072,11 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -975,8 +1087,11 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -987,50 +1102,53 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:11">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:11">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:11">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:11">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:11">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:11">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:11">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:11">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:11">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:11">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:11">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:11">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:11">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:11">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:1">
@@ -1196,7 +1314,10 @@
       <c r="A102"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
